--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\School\Projectwerk\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2D11B2-C480-49FF-B33D-BB08DE006A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D26B0EC-FD6C-4B31-A45F-4048CBB0AB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{809CDF62-745B-4F1A-A798-C7FCCC38DF8C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>draft rapportage van 22/09 gemaakt</t>
+  </si>
+  <si>
+    <t>Discord call (github regelen bij iedereen + afspraken maken)</t>
   </si>
 </sst>
 </file>
@@ -632,12 +635,12 @@
   <dimension ref="A1:L881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
@@ -700,11 +703,11 @@
       </c>
       <c r="K3" s="1">
         <f ca="1">SUMIF(C3:C460,J3,D3:D46)</f>
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="L3" s="6">
         <f ca="1">K3/60</f>
-        <v>1.5833333333333333</v>
+        <v>3.0833333333333335</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -726,11 +729,11 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K6" ca="1" si="0">SUMIF(C4:C461,J4,D4:D47)</f>
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4:L6" ca="1" si="1">K4/60</f>
-        <v>1.5833333333333333</v>
+        <v>3.0833333333333335</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -752,11 +755,11 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -778,11 +781,11 @@
       </c>
       <c r="K6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -849,30 +852,60 @@
       <c r="A11" s="2">
         <v>44096</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>90</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>90</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>90</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>90</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">

--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\School\Projectwerk\projectwerk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\Desktop\repos\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D26B0EC-FD6C-4B31-A45F-4048CBB0AB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75CAA63-6E2C-4AD0-9EC0-474F3FC0A0BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{809CDF62-745B-4F1A-A798-C7FCCC38DF8C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{809CDF62-745B-4F1A-A798-C7FCCC38DF8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Discord call (github regelen bij iedereen + afspraken maken)</t>
+  </si>
+  <si>
+    <t>Uitzoeken patterns</t>
   </si>
 </sst>
 </file>
@@ -634,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53F4D74-8665-4C38-B82D-0BD4F9147925}">
   <dimension ref="A1:L881"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,11 +758,11 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -909,10 +912,18 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>60</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -7125,18 +7136,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7158,14 +7169,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7179,4 +7182,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\Desktop\repos\projectwerk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciki3\source\repos\TrainingManagerProject\projectwerkTeamB2\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75CAA63-6E2C-4AD0-9EC0-474F3FC0A0BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{809CDF62-745B-4F1A-A798-C7FCCC38DF8C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -91,11 +90,14 @@
   <si>
     <t>Uitzoeken patterns</t>
   </si>
+  <si>
+    <t>Projecten, basisstructuur,solution, klasses, business laag repository gemaakt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -301,11 +303,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -321,9 +334,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -634,11 +648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53F4D74-8665-4C38-B82D-0BD4F9147925}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L881"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,11 +720,11 @@
       </c>
       <c r="K3" s="1">
         <f ca="1">SUMIF(C3:C460,J3,D3:D46)</f>
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="L3" s="6">
         <f ca="1">K3/60</f>
-        <v>3.0833333333333335</v>
+        <v>4.583333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -731,12 +745,12 @@
         <v>10</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K6" ca="1" si="0">SUMIF(C4:C461,J4,D4:D47)</f>
-        <v>185</v>
+        <f ca="1">SUMIF(C4:C461,J4,D4:D47)</f>
+        <v>230</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" ref="L4:L6" ca="1" si="1">K4/60</f>
-        <v>3.0833333333333335</v>
+        <f t="shared" ref="L4:L6" ca="1" si="0">K4/60</f>
+        <v>3.8333333333333335</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -757,12 +771,12 @@
         <v>11</v>
       </c>
       <c r="K5" s="1">
+        <f ca="1">SUMIF(C5:C462,J5,D5:D48)</f>
+        <v>300</v>
+      </c>
+      <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -783,11 +797,11 @@
         <v>12</v>
       </c>
       <c r="K6" s="10">
+        <f ca="1">SUMIF(C6:C463,J6,D6:D49)</f>
+        <v>210</v>
+      </c>
+      <c r="L6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="L6" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>3.5</v>
       </c>
     </row>
@@ -913,45 +927,77 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="13">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>44098</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>60</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6994,7 +7040,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C881" xr:uid="{72D2A535-6772-4DCC-8929-9D3728EABF49}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C881">
       <formula1>$J$3:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7136,18 +7182,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7169,6 +7215,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7182,12 +7236,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Projecten, basisstructuur,solution, klasses, business laag repository gemaakt</t>
+  </si>
+  <si>
+    <t>Discord call (veranderingen bespreken + volgende stappen)</t>
   </si>
 </sst>
 </file>
@@ -331,10 +334,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,7 +655,7 @@
   <dimension ref="A1:L881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,13 +670,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -935,7 +938,7 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>45</v>
       </c>
       <c r="E15" s="1"/>
@@ -960,7 +963,7 @@
         <v>44099</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -975,7 +978,7 @@
         <v>44099</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -990,7 +993,7 @@
         <v>44099</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -7182,18 +7185,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7215,14 +7218,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7236,4 +7231,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -655,7 +655,7 @@
   <dimension ref="A1:L881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B19"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7185,18 +7185,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7218,6 +7218,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7231,12 +7239,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciki3\source\repos\TrainingManagerProject\projectwerkTeamB2\projectwerk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\School\Projectwerk\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A6634-08E2-48E3-8723-F474350B9857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -96,11 +97,14 @@
   <si>
     <t>Discord call (veranderingen bespreken + volgende stappen)</t>
   </si>
+  <si>
+    <t>Discord call (Planning maken + takenverdeling)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,7 +344,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,11 +655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A20" sqref="A20:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,11 +727,11 @@
       </c>
       <c r="K3" s="1">
         <f ca="1">SUMIF(C3:C460,J3,D3:D46)</f>
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="L3" s="6">
         <f ca="1">K3/60</f>
-        <v>4.583333333333333</v>
+        <v>5.583333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -749,11 +753,11 @@
       </c>
       <c r="K4" s="1">
         <f ca="1">SUMIF(C4:C461,J4,D4:D47)</f>
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4:L6" ca="1" si="0">K4/60</f>
-        <v>3.8333333333333335</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -775,11 +779,11 @@
       </c>
       <c r="K5" s="1">
         <f ca="1">SUMIF(C5:C462,J5,D5:D48)</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -801,11 +805,11 @@
       </c>
       <c r="K6" s="10">
         <f ca="1">SUMIF(C6:C463,J6,D6:D49)</f>
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1004,31 +1008,63 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>60</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>60</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1">
+        <v>60</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>60</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7043,7 +7079,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C881">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C881" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$J$3:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7053,6 +7089,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA536D067EBDB642ACF72D467B71E2D5" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c3fcb91d1d9e32f823c02d5b2d9c9748">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd383423-36ee-428e-84ea-29af631fe386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9367320e87f463bd73a8985c785fc15e" ns3:_="">
     <xsd:import namespace="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7184,22 +7235,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EC5CCD-8AF0-4181-8080-8D23C7C643E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7215,28 +7275,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\School\Projectwerk\projectwerk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\Desktop\repos\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A6634-08E2-48E3-8723-F474350B9857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26894237-A7ED-426A-A900-C27A677F064D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Discord call (Planning maken + takenverdeling)</t>
+  </si>
+  <si>
+    <t>Database desgin</t>
   </si>
 </sst>
 </file>
@@ -658,22 +661,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L881"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -682,7 +686,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -708,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44095</v>
       </c>
@@ -734,7 +738,7 @@
         <v>5.583333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44095</v>
       </c>
@@ -760,7 +764,7 @@
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44095</v>
       </c>
@@ -779,14 +783,14 @@
       </c>
       <c r="K5" s="1">
         <f ca="1">SUMIF(C5:C462,J5,D5:D48)</f>
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44095</v>
       </c>
@@ -812,7 +816,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44095</v>
       </c>
@@ -827,7 +831,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44095</v>
       </c>
@@ -842,7 +846,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44095</v>
       </c>
@@ -857,7 +861,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44095</v>
       </c>
@@ -872,7 +876,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44096</v>
       </c>
@@ -887,7 +891,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44096</v>
       </c>
@@ -902,7 +906,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44096</v>
       </c>
@@ -917,7 +921,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44096</v>
       </c>
@@ -932,7 +936,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44097</v>
       </c>
@@ -947,7 +951,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44098</v>
       </c>
@@ -962,7 +966,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44099</v>
       </c>
@@ -977,7 +981,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44099</v>
       </c>
@@ -992,7 +996,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44099</v>
       </c>
@@ -1007,7 +1011,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44102</v>
       </c>
@@ -1022,7 +1026,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -1037,7 +1041,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44102</v>
       </c>
@@ -1052,7 +1056,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44102</v>
       </c>
@@ -1067,6006 +1071,6014 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1">
+        <v>120</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -7095,15 +7107,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA536D067EBDB642ACF72D467B71E2D5" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c3fcb91d1d9e32f823c02d5b2d9c9748">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd383423-36ee-428e-84ea-29af631fe386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9367320e87f463bd73a8985c785fc15e" ns3:_="">
     <xsd:import namespace="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7235,6 +7238,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
@@ -7252,14 +7264,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EC5CCD-8AF0-4181-8080-8D23C7C643E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7275,4 +7279,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\Desktop\repos\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26894237-A7ED-426A-A900-C27A677F064D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A5B1FE-9876-4ED8-8329-0FB65FC752CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Database desgin</t>
+  </si>
+  <si>
+    <t>Updated read me en converted briefing</t>
   </si>
 </sst>
 </file>
@@ -661,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L881"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,11 +786,11 @@
       </c>
       <c r="K5" s="1">
         <f ca="1">SUMIF(C5:C462,J5,D5:D48)</f>
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1087,10 +1090,18 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1">
+        <v>30</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -7107,6 +7118,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA536D067EBDB642ACF72D467B71E2D5" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c3fcb91d1d9e32f823c02d5b2d9c9748">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd383423-36ee-428e-84ea-29af631fe386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9367320e87f463bd73a8985c785fc15e" ns3:_="">
     <xsd:import namespace="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7238,15 +7258,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
@@ -7264,6 +7275,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EC5CCD-8AF0-4181-8080-8D23C7C643E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7279,12 +7298,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\Desktop\repos\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A5B1FE-9876-4ED8-8329-0FB65FC752CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D715023-0A27-4BD7-B8E9-67BF465F062F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Updated read me en converted briefing</t>
+  </si>
+  <si>
+    <t>Verwerken feedback database</t>
   </si>
 </sst>
 </file>
@@ -664,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L881"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,11 +789,11 @@
       </c>
       <c r="K5" s="1">
         <f ca="1">SUMIF(C5:C462,J5,D5:D48)</f>
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
+        <v>8.6666666666666661</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1105,10 +1108,18 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10</v>
+      </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -7118,15 +7129,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA536D067EBDB642ACF72D467B71E2D5" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c3fcb91d1d9e32f823c02d5b2d9c9748">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd383423-36ee-428e-84ea-29af631fe386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9367320e87f463bd73a8985c785fc15e" ns3:_="">
     <xsd:import namespace="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7258,6 +7260,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
@@ -7275,14 +7286,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EC5CCD-8AF0-4181-8080-8D23C7C643E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7298,4 +7301,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\Desktop\repos\projectwerk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ciki3\Desktop\SCHOOL 20-21\Projectwerk\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D715023-0A27-4BD7-B8E9-67BF465F062F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="765" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -109,11 +108,14 @@
   <si>
     <t>Verwerken feedback database</t>
   </si>
+  <si>
+    <t>Json reader to List&lt;Strip&gt; aangemaakt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,7 +355,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -664,26 +666,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L881"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -692,7 +694,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -718,7 +720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44095</v>
       </c>
@@ -737,14 +739,14 @@
       </c>
       <c r="K3" s="1">
         <f ca="1">SUMIF(C3:C460,J3,D3:D46)</f>
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="L3" s="6">
         <f ca="1">K3/60</f>
-        <v>5.583333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44095</v>
       </c>
@@ -770,7 +772,7 @@
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44095</v>
       </c>
@@ -796,7 +798,7 @@
         <v>8.6666666666666661</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44095</v>
       </c>
@@ -822,7 +824,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44095</v>
       </c>
@@ -837,7 +839,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44095</v>
       </c>
@@ -852,7 +854,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44095</v>
       </c>
@@ -867,7 +869,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44095</v>
       </c>
@@ -882,7 +884,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44096</v>
       </c>
@@ -897,7 +899,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44096</v>
       </c>
@@ -912,7 +914,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44096</v>
       </c>
@@ -927,7 +929,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44096</v>
       </c>
@@ -942,7 +944,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44097</v>
       </c>
@@ -957,7 +959,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44098</v>
       </c>
@@ -972,7 +974,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44099</v>
       </c>
@@ -987,7 +989,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44099</v>
       </c>
@@ -1002,7 +1004,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44099</v>
       </c>
@@ -1017,7 +1019,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44102</v>
       </c>
@@ -1032,7 +1034,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -1047,7 +1049,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44102</v>
       </c>
@@ -1062,7 +1064,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44102</v>
       </c>
@@ -1077,7 +1079,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44103</v>
       </c>
@@ -1092,7 +1094,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44103</v>
       </c>
@@ -1107,7 +1109,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44103</v>
       </c>
@@ -1122,5985 +1124,5993 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>40</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -7113,7 +7123,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C881" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C881">
       <formula1>$J$3:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7129,6 +7139,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA536D067EBDB642ACF72D467B71E2D5" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c3fcb91d1d9e32f823c02d5b2d9c9748">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd383423-36ee-428e-84ea-29af631fe386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9367320e87f463bd73a8985c785fc15e" ns3:_="">
     <xsd:import namespace="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7260,15 +7279,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
@@ -7286,6 +7296,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EC5CCD-8AF0-4181-8080-8D23C7C643E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7301,12 +7319,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Json reader to List&lt;Strip&gt; aangemaakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">query aanpassen en converten en testen MYSQQL -&gt; SSMS </t>
   </si>
 </sst>
 </file>
@@ -669,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L881"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,11 +742,11 @@
       </c>
       <c r="K3" s="1">
         <f ca="1">SUMIF(C3:C460,J3,D3:D46)</f>
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="L3" s="6">
         <f ca="1">K3/60</f>
-        <v>6.25</v>
+        <v>6.583333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1140,10 +1143,18 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7139,15 +7150,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA536D067EBDB642ACF72D467B71E2D5" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c3fcb91d1d9e32f823c02d5b2d9c9748">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd383423-36ee-428e-84ea-29af631fe386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9367320e87f463bd73a8985c785fc15e" ns3:_="">
     <xsd:import namespace="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7279,6 +7281,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
@@ -7296,14 +7307,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EC5CCD-8AF0-4181-8080-8D23C7C643E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7319,4 +7322,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ciki3\Desktop\SCHOOL 20-21\Projectwerk\projectwerk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\School\Projectwerk\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E4294-44C3-4B20-8517-A526AC5F3982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="765" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="840" yWindow="255" windowWidth="28020" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -114,11 +115,17 @@
   <si>
     <t xml:space="preserve">query aanpassen en converten en testen MYSQQL -&gt; SSMS </t>
   </si>
+  <si>
+    <t>Use cases aanmaken</t>
+  </si>
+  <si>
+    <t>Use cases verder afwerken</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,7 +365,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -669,11 +676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L881"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="1">
-        <f ca="1">SUMIF(C3:C460,J3,D3:D46)</f>
+        <f ca="1">SUMIF(C3:C461,J3,D3:D47)</f>
         <v>395</v>
       </c>
       <c r="L3" s="6">
@@ -767,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="1">
-        <f ca="1">SUMIF(C4:C461,J4,D4:D47)</f>
+        <f ca="1">SUMIF(C4:C462,J4,D4:D48)</f>
         <v>290</v>
       </c>
       <c r="L4" s="6">
@@ -793,7 +800,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="1">
-        <f ca="1">SUMIF(C5:C462,J5,D5:D48)</f>
+        <f ca="1">SUMIF(C5:C463,J5,D5:D49)</f>
         <v>520</v>
       </c>
       <c r="L5" s="6">
@@ -819,12 +826,12 @@
         <v>12</v>
       </c>
       <c r="K6" s="10">
-        <f ca="1">SUMIF(C6:C463,J6,D6:D49)</f>
-        <v>270</v>
+        <f ca="1">SUMIF(C6:C464,J6,D6:D50)</f>
+        <v>360</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1132,13 +1139,13 @@
         <v>44104</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1147,28 +1154,44 @@
         <v>44104</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="1">
+        <v>40</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
         <v>20</v>
       </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1">
+        <v>30</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -7128,13 +7151,20 @@
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
     </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A882" s="1"/>
+      <c r="B882" s="1"/>
+      <c r="C882" s="1"/>
+      <c r="D882" s="1"/>
+      <c r="E882" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C881">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C882" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$J$3:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7144,9 +7174,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7282,26 +7315,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7325,9 +7347,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\School\Projectwerk\projectwerk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ciki3\Desktop\SCHOOL 20-21\Projectwerk\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E4294-44C3-4B20-8517-A526AC5F3982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="255" windowWidth="28020" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="255" windowWidth="28020" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -121,11 +120,14 @@
   <si>
     <t>Use cases verder afwerken</t>
   </si>
+  <si>
+    <t>Error oplossen("no main found")</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,7 +367,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,11 +678,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L882"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,11 +751,11 @@
       </c>
       <c r="K3" s="1">
         <f ca="1">SUMIF(C3:C461,J3,D3:D47)</f>
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="L3" s="6">
         <f ca="1">K3/60</f>
-        <v>6.583333333333333</v>
+        <v>7.083333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1195,10 +1197,18 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>30</v>
+      </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -7164,7 +7174,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C882" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C882">
       <formula1>$J$3:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7183,6 +7193,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA536D067EBDB642ACF72D467B71E2D5" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c3fcb91d1d9e32f823c02d5b2d9c9748">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd383423-36ee-428e-84ea-29af631fe386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9367320e87f463bd73a8985c785fc15e" ns3:_="">
     <xsd:import namespace="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7314,12 +7330,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
   <ds:schemaRefs>
@@ -7329,6 +7339,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EC5CCD-8AF0-4181-8080-8D23C7C643E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7344,20 +7370,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ciki3\Desktop\SCHOOL 20-21\Projectwerk\projectwerk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70990e190d1d57a3/scool/projectwerk/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_16C85AA76288514670BF9DB42DFF057FE5D328C3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{22AE34CE-3497-416C-A3D8-1CEE785B85A6}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="255" windowWidth="28020" windowHeight="15420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23016" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -123,11 +124,17 @@
   <si>
     <t>Error oplossen("no main found")</t>
   </si>
+  <si>
+    <t>Json Data wegschrijven naar een databank</t>
+  </si>
+  <si>
+    <t>Json Data wegschrijven debuggen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +374,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -678,26 +685,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -706,7 +713,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -732,7 +739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44095</v>
       </c>
@@ -758,7 +765,7 @@
         <v>7.083333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44095</v>
       </c>
@@ -777,14 +784,14 @@
       </c>
       <c r="K4" s="1">
         <f ca="1">SUMIF(C4:C462,J4,D4:D48)</f>
-        <v>290</v>
+        <v>560</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4:L6" ca="1" si="0">K4/60</f>
-        <v>4.833333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9.3333333333333339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44095</v>
       </c>
@@ -810,7 +817,7 @@
         <v>8.6666666666666661</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44095</v>
       </c>
@@ -836,7 +843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44095</v>
       </c>
@@ -851,7 +858,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44095</v>
       </c>
@@ -866,7 +873,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44095</v>
       </c>
@@ -881,7 +888,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44095</v>
       </c>
@@ -896,7 +903,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44096</v>
       </c>
@@ -911,7 +918,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44096</v>
       </c>
@@ -926,7 +933,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44096</v>
       </c>
@@ -941,7 +948,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44096</v>
       </c>
@@ -956,7 +963,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44097</v>
       </c>
@@ -971,7 +978,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44098</v>
       </c>
@@ -986,7 +993,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44099</v>
       </c>
@@ -1001,7 +1008,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44099</v>
       </c>
@@ -1016,7 +1023,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44099</v>
       </c>
@@ -1031,7 +1038,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44102</v>
       </c>
@@ -1046,7 +1053,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -1061,7 +1068,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44102</v>
       </c>
@@ -1076,7 +1083,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44102</v>
       </c>
@@ -1091,7 +1098,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44103</v>
       </c>
@@ -1106,7 +1113,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44103</v>
       </c>
@@ -1121,7 +1128,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44103</v>
       </c>
@@ -1136,7 +1143,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44104</v>
       </c>
@@ -1151,7 +1158,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44104</v>
       </c>
@@ -1166,7 +1173,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44104</v>
       </c>
@@ -1181,7 +1188,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44105</v>
       </c>
@@ -1196,7 +1203,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44106</v>
       </c>
@@ -1211,5957 +1218,5973 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>210</v>
+      </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>60</v>
+      </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -7174,7 +7197,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C882">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C882" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$J$3:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7184,21 +7207,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA536D067EBDB642ACF72D467B71E2D5" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c3fcb91d1d9e32f823c02d5b2d9c9748">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd383423-36ee-428e-84ea-29af631fe386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9367320e87f463bd73a8985c785fc15e" ns3:_="">
     <xsd:import namespace="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7330,10 +7338,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EC5CCD-8AF0-4181-8080-8D23C7C643E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7355,19 +7388,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EC5CCD-8AF0-4181-8080-8D23C7C643E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70990e190d1d57a3/scool/projectwerk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\School\Projectwerk\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_16C85AA76288514670BF9DB42DFF057FE5D328C3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{22AE34CE-3497-416C-A3D8-1CEE785B85A6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AFE912-C872-4380-9432-8DC04C770A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23016" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="315" windowWidth="27675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Json Data wegschrijven debuggen</t>
+  </si>
+  <si>
+    <t>Query aanmaken getStripsById</t>
   </si>
 </sst>
 </file>
@@ -688,23 +691,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -713,7 +716,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -739,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44095</v>
       </c>
@@ -765,7 +768,7 @@
         <v>7.083333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44095</v>
       </c>
@@ -791,7 +794,7 @@
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44095</v>
       </c>
@@ -817,7 +820,7 @@
         <v>8.6666666666666661</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44095</v>
       </c>
@@ -836,14 +839,14 @@
       </c>
       <c r="K6" s="10">
         <f ca="1">SUMIF(C6:C464,J6,D6:D50)</f>
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44095</v>
       </c>
@@ -858,7 +861,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44095</v>
       </c>
@@ -873,7 +876,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44095</v>
       </c>
@@ -888,7 +891,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44095</v>
       </c>
@@ -903,7 +906,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44096</v>
       </c>
@@ -918,7 +921,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44096</v>
       </c>
@@ -933,7 +936,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44096</v>
       </c>
@@ -948,7 +951,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44096</v>
       </c>
@@ -963,7 +966,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44097</v>
       </c>
@@ -978,7 +981,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44098</v>
       </c>
@@ -993,7 +996,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44099</v>
       </c>
@@ -1008,7 +1011,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44099</v>
       </c>
@@ -1023,7 +1026,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44099</v>
       </c>
@@ -1038,7 +1041,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44102</v>
       </c>
@@ -1053,7 +1056,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -1068,7 +1071,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44102</v>
       </c>
@@ -1083,7 +1086,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44102</v>
       </c>
@@ -1098,7 +1101,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44103</v>
       </c>
@@ -1113,7 +1116,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44103</v>
       </c>
@@ -1128,7 +1131,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44103</v>
       </c>
@@ -1143,7 +1146,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44104</v>
       </c>
@@ -1158,7 +1161,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44104</v>
       </c>
@@ -1173,7 +1176,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44104</v>
       </c>
@@ -1188,7 +1191,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44105</v>
       </c>
@@ -1203,7 +1206,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44106</v>
       </c>
@@ -1218,7 +1221,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44106</v>
       </c>
@@ -1233,7 +1236,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44107</v>
       </c>
@@ -1248,5943 +1251,5951 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45</v>
+      </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -7339,18 +7350,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7372,6 +7383,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7385,12 +7404,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\School\Projectwerk\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AFE912-C872-4380-9432-8DC04C770A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9754E5C0-E063-4F77-B777-613919276ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1995" yWindow="315" windowWidth="27675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Query aanmaken getStripsById</t>
+  </si>
+  <si>
+    <t>Teams meeting + discord</t>
   </si>
 </sst>
 </file>
@@ -691,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,11 +764,11 @@
       </c>
       <c r="K3" s="1">
         <f ca="1">SUMIF(C3:C461,J3,D3:D47)</f>
-        <v>425</v>
+        <v>530</v>
       </c>
       <c r="L3" s="6">
         <f ca="1">K3/60</f>
-        <v>7.083333333333333</v>
+        <v>8.8333333333333339</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -787,11 +790,11 @@
       </c>
       <c r="K4" s="1">
         <f ca="1">SUMIF(C4:C462,J4,D4:D48)</f>
-        <v>560</v>
+        <v>665</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4:L6" ca="1" si="0">K4/60</f>
-        <v>9.3333333333333339</v>
+        <v>11.083333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -813,11 +816,11 @@
       </c>
       <c r="K5" s="1">
         <f ca="1">SUMIF(C5:C463,J5,D5:D49)</f>
-        <v>520</v>
+        <v>625</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6666666666666661</v>
+        <v>10.416666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -839,11 +842,11 @@
       </c>
       <c r="K6" s="10">
         <f ca="1">SUMIF(C6:C464,J6,D6:D50)</f>
-        <v>405</v>
+        <v>510</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1267,31 +1270,63 @@
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1">
+        <v>105</v>
+      </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="A36" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>105</v>
+      </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="A37" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1">
+        <v>105</v>
+      </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1">
+        <v>105</v>
+      </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -7350,18 +7385,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7383,14 +7418,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7404,4 +7431,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\School\Projectwerk\projectwerk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\Desktop\repos\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9754E5C0-E063-4F77-B777-613919276ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE11A0FF-A14C-4C13-86DE-F744A143E2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="315" windowWidth="27675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Teams meeting + discord</t>
+  </si>
+  <si>
+    <t>Setting up connection from config + explaining + trying to rework queries</t>
   </si>
 </sst>
 </file>
@@ -694,23 +697,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L882"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -719,7 +722,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -745,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44095</v>
       </c>
@@ -771,7 +774,7 @@
         <v>8.8333333333333339</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44095</v>
       </c>
@@ -797,7 +800,7 @@
         <v>11.083333333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44095</v>
       </c>
@@ -816,14 +819,14 @@
       </c>
       <c r="K5" s="1">
         <f ca="1">SUMIF(C5:C463,J5,D5:D49)</f>
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10.416666666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44095</v>
       </c>
@@ -849,7 +852,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44095</v>
       </c>
@@ -864,7 +867,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44095</v>
       </c>
@@ -879,7 +882,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44095</v>
       </c>
@@ -894,7 +897,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44095</v>
       </c>
@@ -909,7 +912,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44096</v>
       </c>
@@ -924,7 +927,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44096</v>
       </c>
@@ -939,7 +942,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44096</v>
       </c>
@@ -954,7 +957,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44096</v>
       </c>
@@ -969,7 +972,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44097</v>
       </c>
@@ -984,7 +987,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44098</v>
       </c>
@@ -999,7 +1002,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44099</v>
       </c>
@@ -1014,7 +1017,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44099</v>
       </c>
@@ -1029,7 +1032,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44099</v>
       </c>
@@ -1044,7 +1047,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44102</v>
       </c>
@@ -1059,7 +1062,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -1074,7 +1077,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44102</v>
       </c>
@@ -1089,7 +1092,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44102</v>
       </c>
@@ -1104,7 +1107,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44103</v>
       </c>
@@ -1119,7 +1122,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44103</v>
       </c>
@@ -1134,7 +1137,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44103</v>
       </c>
@@ -1149,7 +1152,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44104</v>
       </c>
@@ -1164,7 +1167,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44104</v>
       </c>
@@ -1179,7 +1182,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44104</v>
       </c>
@@ -1194,7 +1197,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44105</v>
       </c>
@@ -1209,7 +1212,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44106</v>
       </c>
@@ -1224,7 +1227,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44106</v>
       </c>
@@ -1239,7 +1242,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44107</v>
       </c>
@@ -1254,7 +1257,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44108</v>
       </c>
@@ -1269,7 +1272,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44109</v>
       </c>
@@ -1284,7 +1287,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44109</v>
       </c>
@@ -1299,7 +1302,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44109</v>
       </c>
@@ -1314,7 +1317,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44109</v>
       </c>
@@ -1329,5908 +1332,5916 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1">
+        <v>80</v>
+      </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -7385,18 +7396,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7418,6 +7429,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7431,12 +7450,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\Desktop\repos\projectwerk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ciki3\Desktop\SCHOOL 20-21\Projectwerk\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE11A0FF-A14C-4C13-86DE-F744A143E2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="765" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -139,11 +138,14 @@
   <si>
     <t>Setting up connection from config + explaining + trying to rework queries</t>
   </si>
+  <si>
+    <t>DbFunctions aanpassen + GUI code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,7 +385,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -694,26 +696,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -722,7 +724,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -748,7 +750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44095</v>
       </c>
@@ -767,14 +769,14 @@
       </c>
       <c r="K3" s="1">
         <f ca="1">SUMIF(C3:C461,J3,D3:D47)</f>
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="L3" s="6">
         <f ca="1">K3/60</f>
-        <v>8.8333333333333339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9.8333333333333339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44095</v>
       </c>
@@ -800,7 +802,7 @@
         <v>11.083333333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44095</v>
       </c>
@@ -826,7 +828,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44095</v>
       </c>
@@ -852,7 +854,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44095</v>
       </c>
@@ -867,7 +869,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44095</v>
       </c>
@@ -882,7 +884,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44095</v>
       </c>
@@ -897,7 +899,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44095</v>
       </c>
@@ -912,7 +914,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44096</v>
       </c>
@@ -927,7 +929,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44096</v>
       </c>
@@ -942,7 +944,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44096</v>
       </c>
@@ -957,7 +959,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44096</v>
       </c>
@@ -972,7 +974,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44097</v>
       </c>
@@ -987,7 +989,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44098</v>
       </c>
@@ -1002,7 +1004,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44099</v>
       </c>
@@ -1017,7 +1019,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44099</v>
       </c>
@@ -1032,7 +1034,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44099</v>
       </c>
@@ -1047,7 +1049,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44102</v>
       </c>
@@ -1062,7 +1064,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -1077,7 +1079,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44102</v>
       </c>
@@ -1092,7 +1094,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44102</v>
       </c>
@@ -1107,7 +1109,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44103</v>
       </c>
@@ -1122,7 +1124,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44103</v>
       </c>
@@ -1137,7 +1139,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44103</v>
       </c>
@@ -1152,7 +1154,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44104</v>
       </c>
@@ -1167,7 +1169,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44104</v>
       </c>
@@ -1182,7 +1184,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44104</v>
       </c>
@@ -1197,7 +1199,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44105</v>
       </c>
@@ -1212,7 +1214,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44106</v>
       </c>
@@ -1227,7 +1229,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44106</v>
       </c>
@@ -1242,7 +1244,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44107</v>
       </c>
@@ -1257,7 +1259,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44108</v>
       </c>
@@ -1272,7 +1274,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44109</v>
       </c>
@@ -1287,7 +1289,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44109</v>
       </c>
@@ -1302,7 +1304,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44109</v>
       </c>
@@ -1317,7 +1319,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44109</v>
       </c>
@@ -1332,7 +1334,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44109</v>
       </c>
@@ -1347,5901 +1349,5909 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1">
+        <v>60</v>
+      </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -7254,7 +7264,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C882" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C882">
       <formula1>$J$3:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7396,18 +7406,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7429,14 +7439,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7450,4 +7452,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ciki3\Desktop\SCHOOL 20-21\Projectwerk\projectwerk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\School\Projectwerk\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D67D79-6042-4651-BD93-7369D6D584A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="765" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="1995" yWindow="315" windowWidth="27675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -141,11 +142,14 @@
   <si>
     <t>DbFunctions aanpassen + GUI code</t>
   </si>
+  <si>
+    <t>DbFuncties aanpassen + maken</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,7 +389,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -696,11 +700,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L882"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,11 +851,11 @@
       </c>
       <c r="K6" s="10">
         <f ca="1">SUMIF(C6:C464,J6,D6:D50)</f>
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1365,10 +1369,18 @@
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="A41" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1">
+        <v>90</v>
+      </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -7264,7 +7276,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C882">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C882" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$J$3:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7274,6 +7286,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA536D067EBDB642ACF72D467B71E2D5" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c3fcb91d1d9e32f823c02d5b2d9c9748">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd383423-36ee-428e-84ea-29af631fe386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9367320e87f463bd73a8985c785fc15e" ns3:_="">
     <xsd:import namespace="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7405,35 +7432,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EC5CCD-8AF0-4181-8080-8D23C7C643E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7455,9 +7457,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EC5CCD-8AF0-4181-8080-8D23C7C643E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\School\Projectwerk\projectwerk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ciki3\Desktop\SCHOOL 20-21\Projectwerk\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D67D79-6042-4651-BD93-7369D6D584A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="315" windowWidth="27675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="315" windowWidth="27675" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -145,11 +144,17 @@
   <si>
     <t>DbFuncties aanpassen + maken</t>
   </si>
+  <si>
+    <t>Json reader to List&lt;Strip&gt; aanpassen naar nieuwe bestand</t>
+  </si>
+  <si>
+    <t>klasses en hun constructers aanpassen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,7 +394,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -700,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,11 +778,11 @@
       </c>
       <c r="K3" s="1">
         <f ca="1">SUMIF(C3:C461,J3,D3:D47)</f>
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="L3" s="6">
         <f ca="1">K3/60</f>
-        <v>9.8333333333333339</v>
+        <v>11.083333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1384,17 +1389,33 @@
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="2">
+        <v>44115</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>60</v>
+      </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1">
+        <v>15</v>
+      </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -7276,7 +7297,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C882" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C882">
       <formula1>$J$3:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7295,12 +7316,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA536D067EBDB642ACF72D467B71E2D5" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c3fcb91d1d9e32f823c02d5b2d9c9748">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd383423-36ee-428e-84ea-29af631fe386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9367320e87f463bd73a8985c785fc15e" ns3:_="">
     <xsd:import namespace="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7432,6 +7447,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
   <ds:schemaRefs>
@@ -7441,22 +7462,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EC5CCD-8AF0-4181-8080-8D23C7C643E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7472,4 +7477,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ciki3\Desktop\SCHOOL 20-21\Projectwerk\projectwerk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70990e190d1d57a3/scool/projectwerk/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="114_{198581E2-1017-4BE7-A724-D3DD13AF484F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{000DD4B4-3FDF-4BF8-979B-224D86F3CF65}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="315" windowWidth="27675" windowHeight="15420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23016" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -150,11 +152,14 @@
   <si>
     <t>klasses en hun constructers aanpassen</t>
   </si>
+  <si>
+    <t>Json Data wegschijven aanpassen aan de nieuwe json opmaak + debuggen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,7 +399,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -705,26 +710,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -733,7 +738,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -759,7 +764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44095</v>
       </c>
@@ -785,7 +790,7 @@
         <v>11.083333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44095</v>
       </c>
@@ -804,14 +809,14 @@
       </c>
       <c r="K4" s="1">
         <f ca="1">SUMIF(C4:C462,J4,D4:D48)</f>
-        <v>665</v>
+        <v>710</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4:L6" ca="1" si="0">K4/60</f>
-        <v>11.083333333333334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11.833333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44095</v>
       </c>
@@ -837,7 +842,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44095</v>
       </c>
@@ -863,7 +868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44095</v>
       </c>
@@ -878,7 +883,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44095</v>
       </c>
@@ -893,7 +898,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44095</v>
       </c>
@@ -908,7 +913,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44095</v>
       </c>
@@ -923,7 +928,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44096</v>
       </c>
@@ -938,7 +943,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44096</v>
       </c>
@@ -953,7 +958,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44096</v>
       </c>
@@ -968,7 +973,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44096</v>
       </c>
@@ -983,7 +988,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44097</v>
       </c>
@@ -998,7 +1003,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44098</v>
       </c>
@@ -1013,7 +1018,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44099</v>
       </c>
@@ -1028,7 +1033,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44099</v>
       </c>
@@ -1043,7 +1048,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44099</v>
       </c>
@@ -1058,7 +1063,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44102</v>
       </c>
@@ -1073,7 +1078,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -1088,7 +1093,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44102</v>
       </c>
@@ -1103,7 +1108,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44102</v>
       </c>
@@ -1118,7 +1123,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44103</v>
       </c>
@@ -1133,7 +1138,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44103</v>
       </c>
@@ -1148,7 +1153,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44103</v>
       </c>
@@ -1163,7 +1168,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44104</v>
       </c>
@@ -1178,7 +1183,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44104</v>
       </c>
@@ -1193,7 +1198,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44104</v>
       </c>
@@ -1208,7 +1213,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44105</v>
       </c>
@@ -1223,7 +1228,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44106</v>
       </c>
@@ -1238,7 +1243,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44106</v>
       </c>
@@ -1253,7 +1258,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44107</v>
       </c>
@@ -1268,7 +1273,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44108</v>
       </c>
@@ -1283,7 +1288,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44109</v>
       </c>
@@ -1298,7 +1303,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44109</v>
       </c>
@@ -1313,7 +1318,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44109</v>
       </c>
@@ -1328,7 +1333,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44109</v>
       </c>
@@ -1343,7 +1348,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44109</v>
       </c>
@@ -1358,7 +1363,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44112</v>
       </c>
@@ -1373,7 +1378,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44112</v>
       </c>
@@ -1388,7 +1393,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44115</v>
       </c>
@@ -1403,7 +1408,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44116</v>
       </c>
@@ -1418,5873 +1423,5881 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45</v>
+      </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -7297,7 +7310,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C882">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C882" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$J$3:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7307,12 +7320,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7448,15 +7458,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7480,17 +7501,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="dd383423-36ee-428e-84ea-29af631fe386"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70990e190d1d57a3/scool/projectwerk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\School\Projectwerk\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="114_{198581E2-1017-4BE7-A724-D3DD13AF484F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{000DD4B4-3FDF-4BF8-979B-224D86F3CF65}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CA5368-F938-498F-9DFB-7A3A279AAA40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23016" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="240" windowWidth="27675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -154,6 +153,9 @@
   </si>
   <si>
     <t>Json Data wegschijven aanpassen aan de nieuwe json opmaak + debuggen</t>
+  </si>
+  <si>
+    <t>DbFuncties maken</t>
   </si>
 </sst>
 </file>
@@ -713,23 +715,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L882"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -738,7 +740,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -764,7 +766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44095</v>
       </c>
@@ -790,7 +792,7 @@
         <v>11.083333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44095</v>
       </c>
@@ -816,7 +818,7 @@
         <v>11.833333333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44095</v>
       </c>
@@ -842,7 +844,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44095</v>
       </c>
@@ -861,14 +863,14 @@
       </c>
       <c r="K6" s="10">
         <f ca="1">SUMIF(C6:C464,J6,D6:D50)</f>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44095</v>
       </c>
@@ -883,7 +885,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44095</v>
       </c>
@@ -898,7 +900,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44095</v>
       </c>
@@ -913,7 +915,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44095</v>
       </c>
@@ -928,7 +930,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44096</v>
       </c>
@@ -943,7 +945,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44096</v>
       </c>
@@ -958,7 +960,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44096</v>
       </c>
@@ -973,7 +975,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44096</v>
       </c>
@@ -988,7 +990,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44097</v>
       </c>
@@ -1003,7 +1005,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44098</v>
       </c>
@@ -1018,7 +1020,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44099</v>
       </c>
@@ -1033,7 +1035,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44099</v>
       </c>
@@ -1048,7 +1050,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44099</v>
       </c>
@@ -1063,7 +1065,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44102</v>
       </c>
@@ -1078,7 +1080,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44102</v>
       </c>
@@ -1093,7 +1095,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44102</v>
       </c>
@@ -1108,7 +1110,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44102</v>
       </c>
@@ -1123,7 +1125,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44103</v>
       </c>
@@ -1138,7 +1140,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44103</v>
       </c>
@@ -1153,7 +1155,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44103</v>
       </c>
@@ -1168,7 +1170,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44104</v>
       </c>
@@ -1183,7 +1185,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44104</v>
       </c>
@@ -1198,7 +1200,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44104</v>
       </c>
@@ -1213,7 +1215,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44105</v>
       </c>
@@ -1228,7 +1230,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44106</v>
       </c>
@@ -1243,7 +1245,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44106</v>
       </c>
@@ -1258,7 +1260,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44107</v>
       </c>
@@ -1273,7 +1275,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44108</v>
       </c>
@@ -1288,7 +1290,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44109</v>
       </c>
@@ -1303,7 +1305,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44109</v>
       </c>
@@ -1318,7 +1320,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44109</v>
       </c>
@@ -1333,7 +1335,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44109</v>
       </c>
@@ -1348,7 +1350,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44109</v>
       </c>
@@ -1363,7 +1365,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44112</v>
       </c>
@@ -1378,7 +1380,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44112</v>
       </c>
@@ -1393,7 +1395,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44115</v>
       </c>
@@ -1408,7 +1410,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44116</v>
       </c>
@@ -1423,7 +1425,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44116</v>
       </c>
@@ -1438,5866 +1440,5874 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1">
+        <v>60</v>
+      </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -7326,6 +7336,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA536D067EBDB642ACF72D467B71E2D5" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c3fcb91d1d9e32f823c02d5b2d9c9748">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd383423-36ee-428e-84ea-29af631fe386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9367320e87f463bd73a8985c785fc15e" ns3:_="">
     <xsd:import namespace="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7457,15 +7476,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64438902-043F-48CD-B7EF-38455F47513D}">
   <ds:schemaRefs>
@@ -7483,6 +7493,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4EC5CCD-8AF0-4181-8080-8D23C7C643E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7498,12 +7516,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4B5E02-53ED-4909-B0EA-30D7E8105257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\School\Projectwerk\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CA5368-F938-498F-9DFB-7A3A279AAA40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030DFC3B-7BAA-4ADB-9729-0448F2A5DACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="240" windowWidth="27675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="240" windowWidth="27300" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>DbFuncties maken</t>
+  </si>
+  <si>
+    <t>Discord call</t>
   </si>
 </sst>
 </file>
@@ -715,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,11 +788,11 @@
       </c>
       <c r="K3" s="1">
         <f ca="1">SUMIF(C3:C461,J3,D3:D47)</f>
-        <v>665</v>
+        <v>710</v>
       </c>
       <c r="L3" s="6">
         <f ca="1">K3/60</f>
-        <v>11.083333333333334</v>
+        <v>11.833333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -811,11 +814,11 @@
       </c>
       <c r="K4" s="1">
         <f ca="1">SUMIF(C4:C462,J4,D4:D48)</f>
-        <v>710</v>
+        <v>755</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4:L6" ca="1" si="0">K4/60</f>
-        <v>11.833333333333334</v>
+        <v>12.583333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -837,11 +840,11 @@
       </c>
       <c r="K5" s="1">
         <f ca="1">SUMIF(C5:C463,J5,D5:D49)</f>
-        <v>705</v>
+        <v>750</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -863,11 +866,11 @@
       </c>
       <c r="K6" s="10">
         <f ca="1">SUMIF(C6:C464,J6,D6:D50)</f>
-        <v>660</v>
+        <v>705</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1456,31 +1459,63 @@
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45</v>
+      </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="A47" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45</v>
+      </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="A48" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45</v>
+      </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="A49" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45</v>
+      </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">

--- a/Logboek Team B2.xlsx
+++ b/Logboek Team B2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Documents\School\Projectwerk\projectwerk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\Desktop\repos\projectwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030DFC3B-7BAA-4ADB-9729-0448F2A5DACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC0388-E79C-42C5-B0E8-9BD389E3C97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="240" windowWidth="27300" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t>Logboek Team B2</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Discord call</t>
+  </si>
+  <si>
+    <t>Assigned queries + test</t>
   </si>
 </sst>
 </file>
@@ -718,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:D49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,11 +843,11 @@
       </c>
       <c r="K5" s="1">
         <f ca="1">SUMIF(C5:C463,J5,D5:D49)</f>
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>12.5</v>
+        <v>12.916666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1519,10 +1522,18 @@
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="A50" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="1">
+        <v>25</v>
+      </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -7371,15 +7382,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA536D067EBDB642ACF72D467B71E2D5" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c3fcb91d1d9e32f823c02d5b2d9c9748">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd383423-36ee-428e-84ea-29af631fe386" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9367320e87f463bd73a8985c785fc15e" ns3:_="">
     <xsd:import namespace="dd383423-36ee-428e-84ea-29af631fe386"/>
@@ -7511,6 +7513,15 @@
 </c